--- a/Valida Planilha Cliente/Clientes02.xlsx
+++ b/Valida Planilha Cliente/Clientes02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Processos\Verificar Produto duplicado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Processos\Valida Planilha Cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D305D9B-CD6B-4623-A570-CD7BA7BF348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="rel_dinamico_cf295d_20240703164949" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rel_dinamico_cf295d_20240703164949" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="C:\Users\User\Downloads\rel_dinamico_cf295d_20240703164949.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="25">
         <textField/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="481">
   <si>
     <t>CEP</t>
   </si>
@@ -1503,12 +1504,15 @@
   </si>
   <si>
     <t>Logradouro</t>
+  </si>
+  <si>
+    <t>Data Nascimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1559,7 +1563,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rel_dinamico_cf295d_20240703164949" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rel_dinamico_cf295d_20240703164949" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,11 +1828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I9:O10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,9 +1852,10 @@
     <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>473</v>
       </c>
@@ -1896,8 +1901,11 @@
       <c r="O1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>474</v>
       </c>
@@ -1917,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>474</v>
       </c>
@@ -2013,7 +2021,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>474</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>474</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>278</v>
       </c>
@@ -2096,7 +2104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>474</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>474</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>474</v>
       </c>
@@ -2192,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>474</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>474</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -2276,7 +2284,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>474</v>
       </c>
